--- a/biology/Botanique/Descripteurs_du_vin/Descripteurs_du_vin.xlsx
+++ b/biology/Botanique/Descripteurs_du_vin/Descripteurs_du_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation de descripteurs du vin permet de décrire les vins à l’aide d’une liste de termes qui peuvent être employés lors de la dégustation du vin afin d'évaluer sa qualité globale. 
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au fil du temps, les modes et les préférences font évoluer la dégustation, ainsi que son vocabulaire[1]. Au XIIIe siècle, ce sont les vins jeunes qui sont préférés (moins d'un an), clairets, et francs (à l'opposé des vins modifiés dans l'Antiquité).
-Au XIVe siècle et XVe siècle, la dégustation voit apparaître des termes suivant le courant de l'amour courtois, sur les registres émotionnels et tactiles. Apparaît aussi pour la première fois la notion commerciale de « loyal et marchand »[1], toujours utilisée aujourd'hui pour définir un vin qui respecte les limites législatives fixées.
-Bien que la pratique de la dégustation soit aussi ancienne que l'Histoire de la vigne et du vin, le terme « dégustation » n’apparaît qu’en 1519[2]. La méthodologie se formalise lentement à partir du XIVe siècle, reste rare jusqu’à la fin du XVIIIe siècle, où Linné, Poncelet, et d'autres remettent au goût du jour la compréhension de la dégustation. Dans la culture à cette époque, Rabelais utilise déjà des métaphores pour parler de la dégustation[Note 1],[3], un peu plus tard Molière également[Note 2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au fil du temps, les modes et les préférences font évoluer la dégustation, ainsi que son vocabulaire. Au XIIIe siècle, ce sont les vins jeunes qui sont préférés (moins d'un an), clairets, et francs (à l'opposé des vins modifiés dans l'Antiquité).
+Au XIVe siècle et XVe siècle, la dégustation voit apparaître des termes suivant le courant de l'amour courtois, sur les registres émotionnels et tactiles. Apparaît aussi pour la première fois la notion commerciale de « loyal et marchand », toujours utilisée aujourd'hui pour définir un vin qui respecte les limites législatives fixées.
+Bien que la pratique de la dégustation soit aussi ancienne que l'Histoire de la vigne et du vin, le terme « dégustation » n’apparaît qu’en 1519. La méthodologie se formalise lentement à partir du XIVe siècle, reste rare jusqu’à la fin du XVIIIe siècle, où Linné, Poncelet, et d'autres remettent au goût du jour la compréhension de la dégustation. Dans la culture à cette époque, Rabelais utilise déjà des métaphores pour parler de la dégustation[Note 1] un peu plus tard Molière également[Note 2],.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si les descriptions des flaveurs et des arômes du vin effectuées par les experts sont plus précises et conduisent à de meilleures performances d’appariement (reconnaissance des vins à partir de leurs descriptions) que celles effectuées par les novices[5], les travaux des neurophysiologistes montrent que l'analyse de la dégustation d'un vin reste subjective quantitativement et qualitativement car les perceptions sont un continuum de stimuli et de sensibilités et que les descripteurs sémantiques ne peuvent résumer la multiplicité et la complexité des perceptions[6].De plus, un sondage réalisé en 2013 révèle que les consommateurs jugent surannés voire prétentieux les descripteurs utilisés par les dégustateurs professionnels ou sur les contre-étiquettes[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si les descriptions des flaveurs et des arômes du vin effectuées par les experts sont plus précises et conduisent à de meilleures performances d’appariement (reconnaissance des vins à partir de leurs descriptions) que celles effectuées par les novices, les travaux des neurophysiologistes montrent que l'analyse de la dégustation d'un vin reste subjective quantitativement et qualitativement car les perceptions sont un continuum de stimuli et de sensibilités et que les descripteurs sémantiques ne peuvent résumer la multiplicité et la complexité des perceptions.De plus, un sondage réalisé en 2013 révèle que les consommateurs jugent surannés voire prétentieux les descripteurs utilisés par les dégustateurs professionnels ou sur les contre-étiquettes.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Descripteurs visuels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>couleur
 intensité : pâle, légère, intense, foncée, sombre
@@ -608,34 +626,277 @@
           <t>Descripteurs aromatiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce qui suit est une liste possible de descripteurs du vin, relatifs à l'odorat. Cette liste est dérivée de « la roue des arômes du vin » d'Ann C. Noble[8] :
-Généraux
-bouquet[9]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce qui suit est une liste possible de descripteurs du vin, relatifs à l'odorat. Cette liste est dérivée de « la roue des arômes du vin » d'Ann C. Noble :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Généraux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>bouquet
 bouquet d'oxydation (vin conservé dans des fûts incomplètement pleins, développant des arômes tertiaires de pomme, de coing, puis d'amandes, de noix, de rancio)
-bouquet de réduction (vin vieilli en bouteille fermée et à l’abri de l’air, développant des arômes tertiaires évoquant des animaux[10] — cuir, venaison, fourrure — ou végétaux — sous-bois, champignon —)
+bouquet de réduction (vin vieilli en bouteille fermée et à l’abri de l’air, développant des arômes tertiaires évoquant des animaux — cuir, venaison, fourrure — ou végétaux — sous-bois, champignon —)
 bouqueté : vin au profil aromatique riche
-éventé : vin qui a perdu son bouquet
-Boisé
-Phénolique : phénol, vanille
+éventé : vin qui a perdu son bouquet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Boisé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phénolique : phénol, vanille
 Résineux : pin, cèdre
-Autres : chêne américain, chêne européen, liège
-Empyreumatique
-Caramel : confiture de fraise, miel, diacétyle, caramel au beurre, soja
-Empyreumatique : bois fumé, pain grillé, torréfié (chocolat, café)
-Chimique
-Hydrocarbures : goudron, plastique, kérosène, gazole
+Autres : chêne américain, chêne européen, liège</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Empyreumatique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Caramel : confiture de fraise, miel, diacétyle, caramel au beurre, soja
+Empyreumatique : bois fumé, pain grillé, torréfié (chocolat, café)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chimique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hydrocarbures : goudron, plastique, kérosène, gazole
 Soufré : caoutchouc, hydrogène sulfureux, mercaptan, oignon, ail, choux, allumette brûlée, laine mouillée, lumière, musc, poisson
 Papier : filtre (cellulose), carton pâte, papier mâché
 Piquant: acétate d'éthyle, acide acétique, éthanol, anhydride sulfureux
-Autres : alcools supérieurs, acide sorbique, savon
-Épicés
-Vanille,poivre, cannelle, réglisse, noix de muscade, clou de girofle, anis.
-Floral
-Chèvrefeuille, aubépine, fleur d’oranger, tilleul, jasmin, acacia, violette, lavande, rose.
-Fruité
-Évolution du fruit : frais &gt; compoté &gt; cuit &gt; confituré &gt; confit &gt; sec.
+Autres : alcools supérieurs, acide sorbique, savon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Épicés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanille,poivre, cannelle, réglisse, noix de muscade, clou de girofle, anis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Floral</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chèvrefeuille, aubépine, fleur d’oranger, tilleul, jasmin, acacia, violette, lavande, rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruité</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Évolution du fruit : frais &gt; compoté &gt; cuit &gt; confituré &gt; confit &gt; sec.
 Fruits verts : kiwi, citron vert, melon vert, groseille à maquereau
 Fruits blancs : pomme, poire, pêche de vigne, coing
 Fruits rouges : fraise, framboise, groseille, cerise
@@ -643,54 +904,226 @@
 Fruits jaunes : pêche, abricot, nectarine, brugnon, prune
 Fruits exotiques : ananas, mangue, fruits de la passion, figue, datte, litchi
 Agrumes : citron, orange, pamplemousse, écorce d'orange, zeste, zeste confit
-Fruits secs : amande, noix, noisette, raisin sec, figue sèche, pistache, pruneau cuit
-Minéral
-Descripteur artificiel car la teneur en minéraux dans les vins est trop faible pour être détectée par le goût. La minéralité du vin ne provient donc pas des nutriments du sol mais probablement de molécules formées au cours de la fermentation alcoolique comme les esters ou les thiols[11].
+Fruits secs : amande, noix, noisette, raisin sec, figue sèche, pistache, pruneau cuit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Minéral</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Descripteur artificiel car la teneur en minéraux dans les vins est trop faible pour être détectée par le goût. La minéralité du vin ne provient donc pas des nutriments du sol mais probablement de molécules formées au cours de la fermentation alcoolique comme les esters ou les thiols.
 Roches : pierre à fusil, silex, caillou, argile, hydrocarbure
-Métaux : cuivre, fer, aluminium
-Microbiologique
-Levures : levure, lie de vin
+Métaux : cuivre, fer, aluminium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Microbiologique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Levures : levure, lie de vin
 Fermentaire : choucroute, acide butyrique, sueur, acide lactique
-Autres : cheval, souris
-Végétal
-Frais : rafle de raisin, herbacé, poivron, eucalyptus, menthe
+Autres : cheval, souris</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Végétal</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Frais : rafle de raisin, herbacé, poivron, eucalyptus, menthe
 Légumes : haricot vert, asperge, olive, artichaut
-Sec : foin/paille, tabac, thé
-Terreux
-Terreux : géosmine, poussiéreux, ciment/béton, champignon[12]
-Moisi :  bouchon moisi, mildiou, cave[13]
-Défauts
-Oxydé : acétaldéhyde</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Descripteurs_du_vin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Sec : foin/paille, tabac, thé</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Terreux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Terreux : géosmine, poussiéreux, ciment/béton, champignon
+Moisi :  bouchon moisi, mildiou, cave</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Descripteurs aromatiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Défauts</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Oxydé : acétaldéhyde</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Descripteurs_du_vin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Descripteurs gustatifs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>« La verbalisation de l'expérience olfactive est généralement laissée au hasard de l'expérience individuelle », ce qui explique que le vocabulaire du vin est caractérisé par de nombreuses métaphores et métonymes anthropomorphiques (nez, bouche, corps du vin), ainsi que d'importantes variations linguistiques. De plus, selon la théorie de l'interactionnisme, la négociation entre les participants à une dégustation peut conduire à un « effet leader » qui impose son vocabulaire. Ainsi, bien qu'il existe des procédures consensuelles d'évaluation sensorielle, le vocabulaire du vin n'est pas normalisé[14] : vocabulaire populaire voire argotique apparu à la fin du Moyen Âge, style rhétorique au XVIIe siècle (vin aimable, coquin, généreux, etc.), style esthétique à la fin du XIXe siècle (vin étoffé, charpenté, qui fait référence à une œuvre d'art), vocabulaire plus scientifique à la fin du XXe siècle (roue des arômes du vin, intensité, caudalies)[15]. Ce qui suit est une liste incomplète (le glossaire du vin Hachette en recense 1 654[16]) des termes ambigus ou imprécis décrivant sensoriellement le vin[17],[18],[19] : 
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>« La verbalisation de l'expérience olfactive est généralement laissée au hasard de l'expérience individuelle », ce qui explique que le vocabulaire du vin est caractérisé par de nombreuses métaphores et métonymes anthropomorphiques (nez, bouche, corps du vin), ainsi que d'importantes variations linguistiques. De plus, selon la théorie de l'interactionnisme, la négociation entre les participants à une dégustation peut conduire à un « effet leader » qui impose son vocabulaire. Ainsi, bien qu'il existe des procédures consensuelles d'évaluation sensorielle, le vocabulaire du vin n'est pas normalisé : vocabulaire populaire voire argotique apparu à la fin du Moyen Âge, style rhétorique au XVIIe siècle (vin aimable, coquin, généreux, etc.), style esthétique à la fin du XIXe siècle (vin étoffé, charpenté, qui fait référence à une œuvre d'art), vocabulaire plus scientifique à la fin du XXe siècle (roue des arômes du vin, intensité, caudalies). Ce qui suit est une liste incomplète (le glossaire du vin Hachette en recense 1 654) des termes ambigus ou imprécis décrivant sensoriellement le vin : 
 acerbe : vin vert, trop âpre, trop acide. Défaut très grave dû à un excès de tanin
 agressif : vin trop acide
 aimable : vin agréable, sans caractère prédominant
